--- a/biology/Microbiologie/Erwiniaceae/Erwiniaceae.xlsx
+++ b/biology/Microbiologie/Erwiniaceae/Erwiniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erwiniaceae sont une famille de bacilles Gram négatifs de l'ordre des Enterobacterales. Leur nom provient de Erwinia qui est le genre type de la famille.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est créée en 2016 lors de la réorganisation de l'ordre des Enterobacterales par M. Adeolu et al. sur la base de travaux de phylogénétique moléculaire[1]. Elle se compose de genres bactériens auparavant rattachés aux Enterobacteriaceae sur la base de critères phénotypiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est créée en 2016 lors de la réorganisation de l'ordre des Enterobacterales par M. Adeolu et al. sur la base de travaux de phylogénétique moléculaire. Elle se compose de genres bactériens auparavant rattachés aux Enterobacteriaceae sur la base de critères phénotypiques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (25 octobre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (25 octobre 2022) :
 Buchnera Munson et al. 1991
 Erwinia Winslow et al. 1920 – genre type
 Mixta Palmer et al. 2018
